--- a/sample_rsu_data.xlsx
+++ b/sample_rsu_data.xlsx
@@ -1,53 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloudnamaste/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloudnamaste/Documents/Code/financialplanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F711DEB5-2E18-C94F-A993-313D94523E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB96910-CB39-A14F-A3DC-AC9A59240F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vesting Schedule" sheetId="1" r:id="rId1"/>
-    <sheet name="RSU Sales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Vesting Date</t>
   </si>
   <si>
-    <t>RSUs Vested</t>
-  </si>
-  <si>
-    <t>FMV at Vesting</t>
-  </si>
-  <si>
-    <t>Gross Value (AUD)</t>
-  </si>
-  <si>
-    <t>Sell Date</t>
-  </si>
-  <si>
-    <t>Shares Sold</t>
-  </si>
-  <si>
-    <t>Sale Price (AUD)</t>
-  </si>
-  <si>
-    <t>FMV at Vesting (AUD)</t>
-  </si>
-  <si>
-    <t>Held &gt; 12 Months</t>
+    <t>GrantID</t>
+  </si>
+  <si>
+    <t>RSU Vested</t>
+  </si>
+  <si>
+    <t>Price at Vesting</t>
+  </si>
+  <si>
+    <t>AUD001</t>
+  </si>
+  <si>
+    <t>AUD002</t>
+  </si>
+  <si>
+    <t>AUD003</t>
+  </si>
+  <si>
+    <t>AUD004</t>
+  </si>
+  <si>
+    <t>AUD005</t>
+  </si>
+  <si>
+    <t>AUD006</t>
+  </si>
+  <si>
+    <t>AUD007</t>
+  </si>
+  <si>
+    <t>AUD008</t>
+  </si>
+  <si>
+    <t>AUD009</t>
+  </si>
+  <si>
+    <t>AUD010</t>
+  </si>
+  <si>
+    <t>AUD011</t>
+  </si>
+  <si>
+    <t>AUD012</t>
+  </si>
+  <si>
+    <t>AUD013</t>
   </si>
 </sst>
 </file>
@@ -57,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +93,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -415,15 +444,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="A15:D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -442,119 +474,196 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B2">
-        <v>20.83</v>
+        <v>44652</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
         <v>100</v>
-      </c>
-      <c r="D2">
-        <v>2083</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B3">
-        <v>20.83</v>
+        <v>44743</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>2124.66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>45352</v>
-      </c>
-      <c r="B4">
-        <v>20.83</v>
+        <v>44835</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>101.5</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>2112.5500000000002</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>115</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>45792</v>
-      </c>
-      <c r="B3">
-        <v>150</v>
-      </c>
-      <c r="C3">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <v>105</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>